--- a/biology/Botanique/Potthucke/Potthucke.xlsx
+++ b/biology/Botanique/Potthucke/Potthucke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Potthucke est un mets à base de pommes de terre traditionnel de la cuisine allemande, originaire de la région montagneuse de Sauerland en Rhénanie-du-Nord-Westphalie (Allemagne).
@@ -513,7 +525,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La base du plat est une pâte préparée avec des pommes de terre et des oignons, pelés et taillés, auxquels on ajoute de la  farine et de la saucisse de type Mettwurst hachée. À l'assaisonnement on ajoute du poivre noir et de la noix de muscade.
 L'ensemble est mis au four à 200 °C pendant 80 à 90 minutes. Les boissons qui accompagnent ce plat sont en général de la bière ou une eau-de-vie.
@@ -545,7 +559,9 @@
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En Rhénanie, il existe des plats très semblables au Potthucke, avec quelques différences qui en font des spécialités propres de la région, tels le Döppcheskooche, le Döbbekuchen, le Dibbelabbes, le Kesselskooche, etc.
 </t>
